--- a/fakture/Book2.xlsx
+++ b/fakture/Book2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10911"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nenadstupar/Documents/GitHub/expresstrans/fakture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A76F576-8701-9A49-8873-4934DDA5D9BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51731644-2FE7-AF49-BADA-461F48833A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{DA9B066F-94CC-6E4D-9754-FE18DB1A04AF}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DA9B066F-94CC-6E4D-9754-FE18DB1A04AF}"/>
   </bookViews>
   <sheets>
     <sheet name="Book1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
   <si>
     <t>Frankfurt</t>
   </si>
@@ -53,93 +53,90 @@
     <t>Prnjavor</t>
   </si>
   <si>
-    <t>Jedan smijer</t>
+    <t>12</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Wiesbaden</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>R. broj</t>
+  </si>
+  <si>
+    <t>Ime i prezime</t>
+  </si>
+  <si>
+    <t>Iz</t>
+  </si>
+  <si>
+    <t>Za</t>
+  </si>
+  <si>
+    <t>Cijena</t>
+  </si>
+  <si>
+    <t>Karta</t>
+  </si>
+  <si>
+    <t>Broj karte</t>
+  </si>
+  <si>
+    <t>Nirnberg</t>
+  </si>
+  <si>
+    <t>Derventa</t>
+  </si>
+  <si>
+    <t>Jedan smjer</t>
+  </si>
+  <si>
+    <t>Gradiška</t>
+  </si>
+  <si>
+    <t>Erlangen</t>
   </si>
   <si>
     <t>13</t>
   </si>
   <si>
-    <t>12</t>
-  </si>
-  <si>
-    <t>11</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>9</t>
-  </si>
-  <si>
-    <t>8</t>
-  </si>
-  <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Wiesbaden</t>
-  </si>
-  <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>R. broj</t>
-  </si>
-  <si>
-    <t>Ime i prezime</t>
-  </si>
-  <si>
-    <t>Iz</t>
-  </si>
-  <si>
-    <t>Za</t>
-  </si>
-  <si>
-    <t>Cijena</t>
-  </si>
-  <si>
-    <t>Karta</t>
-  </si>
-  <si>
-    <t>Broj karte</t>
-  </si>
-  <si>
-    <t>Gradiška</t>
-  </si>
-  <si>
-    <t>Doboj</t>
-  </si>
-  <si>
-    <t>Nirnberg</t>
-  </si>
-  <si>
     <t>14</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Laktaši</t>
-  </si>
-  <si>
-    <t>013051</t>
-  </si>
-  <si>
     <t>16</t>
   </si>
   <si>
@@ -158,154 +155,130 @@
     <t>21</t>
   </si>
   <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>23</t>
-  </si>
-  <si>
-    <t>Derventa</t>
-  </si>
-  <si>
-    <t>Dragiša Malešević</t>
-  </si>
-  <si>
-    <t>013034</t>
-  </si>
-  <si>
-    <t>Nikola Pušac</t>
-  </si>
-  <si>
-    <t>013035</t>
-  </si>
-  <si>
-    <t>Milan Babić</t>
-  </si>
-  <si>
-    <t>013036</t>
-  </si>
-  <si>
-    <t>Dražen Brkić</t>
-  </si>
-  <si>
-    <t>Erlangen</t>
-  </si>
-  <si>
-    <t>013037</t>
-  </si>
-  <si>
-    <t>Ljiljana Vještica</t>
-  </si>
-  <si>
-    <t>013038</t>
-  </si>
-  <si>
-    <t>Ana Kosovac</t>
-  </si>
-  <si>
-    <t>013039</t>
-  </si>
-  <si>
-    <t>Tomislav Bukovica</t>
-  </si>
-  <si>
-    <t>013040</t>
-  </si>
-  <si>
-    <t>Branislav Petković</t>
-  </si>
-  <si>
-    <t>Ingolstadt</t>
-  </si>
-  <si>
-    <t>013041</t>
-  </si>
-  <si>
-    <t>Aleksandra Keic</t>
-  </si>
-  <si>
-    <t>013042</t>
-  </si>
-  <si>
-    <t>Sendi Birkenwald</t>
-  </si>
-  <si>
-    <t>013043</t>
-  </si>
-  <si>
-    <t>Brankica Vejsilagić</t>
-  </si>
-  <si>
-    <t>013044</t>
-  </si>
-  <si>
-    <t>Desanka Zemun</t>
-  </si>
-  <si>
-    <t>013045</t>
-  </si>
-  <si>
-    <t>Miladin Gavrić</t>
-  </si>
-  <si>
-    <t>013046</t>
-  </si>
-  <si>
-    <t>Darko Cvijanović</t>
-  </si>
-  <si>
-    <t>013047</t>
-  </si>
-  <si>
-    <t>Vladimir Peulić</t>
-  </si>
-  <si>
-    <t>013048</t>
-  </si>
-  <si>
-    <t>Nebojša Gavrić</t>
-  </si>
-  <si>
-    <t>013049</t>
-  </si>
-  <si>
-    <t>Danijel Đuraš</t>
-  </si>
-  <si>
-    <t>013050</t>
-  </si>
-  <si>
-    <t>Biljana Lakić</t>
-  </si>
-  <si>
-    <t>Ranka Marić</t>
-  </si>
-  <si>
-    <t>011733</t>
-  </si>
-  <si>
-    <t>Nikić</t>
-  </si>
-  <si>
-    <t>012083</t>
-  </si>
-  <si>
-    <t>Ratko Baškalo</t>
-  </si>
-  <si>
-    <t>012310</t>
-  </si>
-  <si>
-    <t>Ratkovac</t>
-  </si>
-  <si>
-    <t>012409</t>
-  </si>
-  <si>
-    <t>Palačković</t>
-  </si>
-  <si>
-    <t>015466</t>
+    <t>Simo Gajić</t>
+  </si>
+  <si>
+    <t>016541</t>
+  </si>
+  <si>
+    <t>Almir Hamzić</t>
+  </si>
+  <si>
+    <t>016542</t>
+  </si>
+  <si>
+    <t>Amra Hamzić</t>
+  </si>
+  <si>
+    <t>016543</t>
+  </si>
+  <si>
+    <t>Amina Hamzić</t>
+  </si>
+  <si>
+    <t>016544</t>
+  </si>
+  <si>
+    <t>Lamija Hamzić</t>
+  </si>
+  <si>
+    <t>016545</t>
+  </si>
+  <si>
+    <t>Leina Hamzić</t>
+  </si>
+  <si>
+    <t>016546</t>
+  </si>
+  <si>
+    <t>Borislav Knežević</t>
+  </si>
+  <si>
+    <t>016547</t>
+  </si>
+  <si>
+    <t>Miloš Čupeljić</t>
+  </si>
+  <si>
+    <t>016548</t>
+  </si>
+  <si>
+    <t>Ranko Vidić</t>
+  </si>
+  <si>
+    <t>016549</t>
+  </si>
+  <si>
+    <t>Radovan Kočić</t>
+  </si>
+  <si>
+    <t>016550</t>
+  </si>
+  <si>
+    <t>Angel Nakaradić</t>
+  </si>
+  <si>
+    <t>016301</t>
+  </si>
+  <si>
+    <t>Ljubica Simić</t>
+  </si>
+  <si>
+    <t>016302</t>
+  </si>
+  <si>
+    <t>Mirjana Đukić</t>
+  </si>
+  <si>
+    <t>016303</t>
+  </si>
+  <si>
+    <t>Vesna Dabić</t>
+  </si>
+  <si>
+    <t>016304</t>
+  </si>
+  <si>
+    <t>Rade Dujaković</t>
+  </si>
+  <si>
+    <t>016305</t>
+  </si>
+  <si>
+    <t>Božana Đorđić</t>
+  </si>
+  <si>
+    <t>016306</t>
+  </si>
+  <si>
+    <t>Vladimir T</t>
+  </si>
+  <si>
+    <t>016307</t>
+  </si>
+  <si>
+    <t>Miro Biber</t>
+  </si>
+  <si>
+    <t>016308</t>
+  </si>
+  <si>
+    <t>Nenad Biber</t>
+  </si>
+  <si>
+    <t>016309</t>
+  </si>
+  <si>
+    <t>Kukolj Dobrila</t>
+  </si>
+  <si>
+    <t>015233</t>
+  </si>
+  <si>
+    <t>Kalamanda</t>
+  </si>
+  <si>
+    <t>016000</t>
   </si>
 </sst>
 </file>
@@ -313,7 +286,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="#,##0.00\ [$€-1]"/>
+    <numFmt numFmtId="164" formatCode="#,##0.00\ &quot;€&quot;"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -681,296 +654,296 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAF4E8B-DC0B-414F-BF3F-78A89B821379}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G24"/>
+      <selection activeCell="I16" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C1" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E3" s="4">
-        <v>85</v>
+        <v>135</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="E4" s="4">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B5" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>50</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>110</v>
+        <v>95</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>105</v>
+        <v>50</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="4">
+        <v>50</v>
+      </c>
+      <c r="F7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="E7" s="4">
-        <v>105</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>2</v>
-      </c>
       <c r="G7" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="4">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>32</v>
+        <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E10" s="4">
-        <v>55</v>
+        <v>125</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>4</v>
+        <v>26</v>
       </c>
       <c r="E12" s="4">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>3</v>
@@ -985,182 +958,182 @@
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E14" s="4">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E15" s="4">
-        <v>90</v>
+        <v>55</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>2</v>
+        <v>27</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="E16" s="4">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="E17" s="4">
         <v>55</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="E18" s="4">
         <v>55</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>5</v>
+        <v>27</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E19" s="4">
-        <v>55</v>
+        <v>85</v>
       </c>
       <c r="F19" s="2" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>33</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>3</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E20" s="4">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G20" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -1169,21 +1142,21 @@
         <v>2</v>
       </c>
       <c r="G21" s="1" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="C22" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>27</v>
+        <v>1</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -1192,53 +1165,7 @@
         <v>2</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="E23" s="4">
-        <v>0</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A24" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E24" s="4">
-        <v>0</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G24" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>

--- a/fakture/Book2.xlsx
+++ b/fakture/Book2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11210"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nenadstupar/Documents/GitHub/expresstrans/fakture/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51731644-2FE7-AF49-BADA-461F48833A8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A8ECA4C-5229-0145-83A6-C49CA155B9E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" xr2:uid="{DA9B066F-94CC-6E4D-9754-FE18DB1A04AF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="61">
   <si>
     <t>Frankfurt</t>
   </si>
@@ -116,169 +116,109 @@
     <t>Nirnberg</t>
   </si>
   <si>
+    <t>Erlangen</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Wurzburg</t>
+  </si>
+  <si>
+    <t>Jedan smijer</t>
+  </si>
+  <si>
+    <t>Doboj</t>
+  </si>
+  <si>
     <t>Derventa</t>
   </si>
   <si>
-    <t>Jedan smjer</t>
-  </si>
-  <si>
-    <t>Gradiška</t>
-  </si>
-  <si>
-    <t>Erlangen</t>
-  </si>
-  <si>
-    <t>13</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>21</t>
-  </si>
-  <si>
-    <t>Simo Gajić</t>
-  </si>
-  <si>
-    <t>016541</t>
-  </si>
-  <si>
-    <t>Almir Hamzić</t>
-  </si>
-  <si>
-    <t>016542</t>
-  </si>
-  <si>
-    <t>Amra Hamzić</t>
-  </si>
-  <si>
-    <t>016543</t>
-  </si>
-  <si>
-    <t>Amina Hamzić</t>
-  </si>
-  <si>
-    <t>016544</t>
-  </si>
-  <si>
-    <t>Lamija Hamzić</t>
-  </si>
-  <si>
-    <t>016545</t>
-  </si>
-  <si>
-    <t>Leina Hamzić</t>
-  </si>
-  <si>
-    <t>016546</t>
-  </si>
-  <si>
-    <t>Borislav Knežević</t>
-  </si>
-  <si>
-    <t>016547</t>
-  </si>
-  <si>
-    <t>Miloš Čupeljić</t>
-  </si>
-  <si>
-    <t>016548</t>
-  </si>
-  <si>
-    <t>Ranko Vidić</t>
-  </si>
-  <si>
-    <t>016549</t>
-  </si>
-  <si>
-    <t>Radovan Kočić</t>
-  </si>
-  <si>
-    <t>016550</t>
-  </si>
-  <si>
-    <t>Angel Nakaradić</t>
-  </si>
-  <si>
-    <t>016301</t>
-  </si>
-  <si>
-    <t>Ljubica Simić</t>
-  </si>
-  <si>
-    <t>016302</t>
-  </si>
-  <si>
-    <t>Mirjana Đukić</t>
-  </si>
-  <si>
-    <t>016303</t>
-  </si>
-  <si>
-    <t>Vesna Dabić</t>
-  </si>
-  <si>
-    <t>016304</t>
-  </si>
-  <si>
-    <t>Rade Dujaković</t>
-  </si>
-  <si>
-    <t>016305</t>
-  </si>
-  <si>
-    <t>Božana Đorđić</t>
-  </si>
-  <si>
-    <t>016306</t>
-  </si>
-  <si>
-    <t>Vladimir T</t>
-  </si>
-  <si>
-    <t>016307</t>
-  </si>
-  <si>
-    <t>Miro Biber</t>
-  </si>
-  <si>
-    <t>016308</t>
-  </si>
-  <si>
-    <t>Nenad Biber</t>
-  </si>
-  <si>
-    <t>016309</t>
-  </si>
-  <si>
-    <t>Kukolj Dobrila</t>
-  </si>
-  <si>
-    <t>015233</t>
-  </si>
-  <si>
-    <t>Kalamanda</t>
-  </si>
-  <si>
-    <t>016000</t>
+    <t xml:space="preserve">Nikolina Galic </t>
+  </si>
+  <si>
+    <t>017671</t>
+  </si>
+  <si>
+    <t>Coric Drazen</t>
+  </si>
+  <si>
+    <t>017672</t>
+  </si>
+  <si>
+    <t>Buric P</t>
+  </si>
+  <si>
+    <t>017673</t>
+  </si>
+  <si>
+    <t>Dragodlav Krstana</t>
+  </si>
+  <si>
+    <t>017674</t>
+  </si>
+  <si>
+    <t>Maric Sanja</t>
+  </si>
+  <si>
+    <t>017675</t>
+  </si>
+  <si>
+    <t>Simic Anja</t>
+  </si>
+  <si>
+    <t>017993</t>
+  </si>
+  <si>
+    <t>Jotanovic Nikola</t>
+  </si>
+  <si>
+    <t>017994</t>
+  </si>
+  <si>
+    <t>Bosko Delic</t>
+  </si>
+  <si>
+    <t>017995</t>
+  </si>
+  <si>
+    <t>Jungic Damjan</t>
+  </si>
+  <si>
+    <t>017996</t>
+  </si>
+  <si>
+    <t>Tesic Dragan</t>
+  </si>
+  <si>
+    <t>017997</t>
+  </si>
+  <si>
+    <t>Nesic Saban</t>
+  </si>
+  <si>
+    <t>017741</t>
+  </si>
+  <si>
+    <t>Rusmira M</t>
+  </si>
+  <si>
+    <t>017742</t>
+  </si>
+  <si>
+    <t>Milorad Sesic</t>
+  </si>
+  <si>
+    <t>017745</t>
+  </si>
+  <si>
+    <t>Savkovic Radmila</t>
+  </si>
+  <si>
+    <t>017931</t>
   </si>
 </sst>
 </file>
@@ -654,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1FAF4E8B-DC0B-414F-BF3F-78A89B821379}">
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="A1:XFD1048576"/>
+      <selection sqref="A1:G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -690,22 +630,22 @@
         <v>17</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="D2" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E2" s="4">
-        <v>135</v>
+        <v>80</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -713,22 +653,22 @@
         <v>16</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E3" s="4">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>2</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -736,22 +676,22 @@
         <v>14</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D4" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E4" s="4">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -759,22 +699,22 @@
         <v>13</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D5" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E5" s="4">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -782,22 +722,22 @@
         <v>12</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="D6" s="2" t="s">
         <v>4</v>
       </c>
       <c r="E6" s="4">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -805,22 +745,22 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C7" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="E7" s="4">
-        <v>50</v>
+        <v>140</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -828,22 +768,22 @@
         <v>10</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E8" s="4">
-        <v>125</v>
+        <v>135</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -851,22 +791,22 @@
         <v>9</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E9" s="4">
-        <v>85</v>
+        <v>95</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -874,13 +814,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>0</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E10" s="4">
         <v>125</v>
@@ -889,7 +829,7 @@
         <v>2</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -897,22 +837,22 @@
         <v>7</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>1</v>
       </c>
       <c r="E11" s="4">
-        <v>110</v>
+        <v>125</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -920,22 +860,22 @@
         <v>6</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E12" s="4">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -943,229 +883,68 @@
         <v>5</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>3</v>
+        <v>25</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>4</v>
+        <v>31</v>
       </c>
       <c r="E13" s="4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="E14" s="4">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B15" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
       <c r="E15" s="4">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="F15" s="2" t="s">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E16" s="4">
-        <v>85</v>
-      </c>
-      <c r="F16" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E17" s="4">
-        <v>55</v>
-      </c>
-      <c r="F17" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G17" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E18" s="4">
-        <v>55</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E19" s="4">
-        <v>85</v>
-      </c>
-      <c r="F19" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A20" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="E20" s="4">
-        <v>85</v>
-      </c>
-      <c r="F20" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E21" s="4">
-        <v>0</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C22" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22" s="4">
-        <v>0</v>
-      </c>
-      <c r="F22" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="G22" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
